--- a/biology/Botanique/Justicia_cavernarum/Justicia_cavernarum.xlsx
+++ b/biology/Botanique/Justicia_cavernarum/Justicia_cavernarum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rhaphidospora cavernarum est une espèce végétale de la famille des Acanthaceae. On croyait l'espèce éteinte dans le Queensland jusqu'à ce qu'on la redécouvre au Cap York, entre Cooktown et la rivière Lockhart. Avant cela, l'espèce n'avait pas été vue depuis 1873[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhaphidospora cavernarum est une espèce végétale de la famille des Acanthaceae. On croyait l'espèce éteinte dans le Queensland jusqu'à ce qu'on la redécouvre au Cap York, entre Cooktown et la rivière Lockhart. Avant cela, l'espèce n'avait pas été vue depuis 1873.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Justicia cavernarum F.Muell.
 Justicia platyphylla S.Moore
